--- a/routines/TestApprox2.xlsx
+++ b/routines/TestApprox2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/math4610/routines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C602FCDC-DF66-2549-8A51-88E72114212D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D8B5FB-9DA2-A640-A291-CF04B6306E36}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24760" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24840" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>H:</t>
+    <t>H: f(x) = x^3 + 2x^2-3x</t>
   </si>
   <si>
-    <t>Abs</t>
+    <t>Absolute:</t>
   </si>
   <si>
-    <t>Rel</t>
+    <t>Relative:</t>
+  </si>
+  <si>
+    <t>d/dx</t>
   </si>
 </sst>
 </file>
@@ -122,20 +125,12 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs Relative Error</a:t>
+              <a:t> Vs Relative</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.37412246056729653"/>
-          <c:y val="3.215434083601286E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -177,7 +172,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Abs</c:v>
+                  <c:v>Absolute:</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -196,10 +191,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet!$A$2:$A$28</c:f>
+              <c:f>Sheet!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -280,16 +275,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1.490116119384766E-8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.4505805969238281E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet!$B$2:$B$28</c:f>
+              <c:f>Sheet!$B$2:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -368,8 +366,8 @@
                 <c:pt idx="25">
                   <c:v>1.4901161193847659E-7</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.9604644775390618E-8</c:v>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,7 +375,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7E5F-664B-8821-F784D1F6A414}"/>
+              <c16:uniqueId val="{00000000-8ADB-144A-99B9-CF9A17906FC6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -390,7 +388,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rel</c:v>
+                  <c:v>Relative:</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -409,10 +407,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet!$A$2:$A$28</c:f>
+              <c:f>Sheet!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -493,96 +491,102 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1.490116119384766E-8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.4505805969238281E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet!$C$2:$C$28</c:f>
+              <c:f>Sheet!$C$2:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40740740740740738</c:v>
+                  <c:v>0.6875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2470588235294118</c:v>
+                  <c:v>0.328125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13804713804713811</c:v>
+                  <c:v>0.16015625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3303167420814483E-2</c:v>
+                  <c:v>7.91015625E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7820061075875031E-2</c:v>
+                  <c:v>3.9306640625E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9215803651601322E-2</c:v>
+                  <c:v>1.959228515625E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6861447330643582E-3</c:v>
+                  <c:v>9.7808837890625E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8628641928442629E-3</c:v>
+                  <c:v>4.886627197265625E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4364093357954288E-3</c:v>
+                  <c:v>2.4423599243164058E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2194526631622189E-3</c:v>
+                  <c:v>1.220941543579102E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.1003879265334826E-4</c:v>
+                  <c:v>6.1041116714477539E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0509756947576353E-4</c:v>
+                  <c:v>3.0519068241119379E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5256833526648261E-4</c:v>
+                  <c:v>1.5259161591529849E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.6289056170945446E-5</c:v>
+                  <c:v>7.6294876635074615E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.8145750333117248E-5</c:v>
+                  <c:v>3.8147205486893647E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9073180742623581E-5</c:v>
+                  <c:v>1.907354453578591E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.536666767097352E-6</c:v>
+                  <c:v>9.5367577159777284E-6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.768348844772125E-6</c:v>
+                  <c:v>4.76837158203125E-6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.384180106687291E-6</c:v>
+                  <c:v>2.384185791015625E-6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.192091474424035E-6</c:v>
+                  <c:v>1.1920928955078121E-6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.9604609248275013E-7</c:v>
+                  <c:v>5.9604644775390625E-7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.9802313505913762E-7</c:v>
+                  <c:v>2.9802322387695312E-7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.4901158973401941E-7</c:v>
+                  <c:v>1.4901161193847659E-7</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.4505800418123568E-8</c:v>
+                  <c:v>7.4505805969238281E-8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.7252901596840413E-8</c:v>
+                  <c:v>3.7252902984619141E-8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.490116097180305E-8</c:v>
+                  <c:v>1.490116119384766E-8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -590,7 +594,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7E5F-664B-8821-F784D1F6A414}"/>
+              <c16:uniqueId val="{00000001-8ADB-144A-99B9-CF9A17906FC6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -602,11 +606,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372945584"/>
-        <c:axId val="373258960"/>
+        <c:axId val="584196704"/>
+        <c:axId val="539727408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372945584"/>
+        <c:axId val="584196704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,12 +664,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373258960"/>
+        <c:crossAx val="539727408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="373258960"/>
+        <c:axId val="539727408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,7 +723,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372945584"/>
+        <c:crossAx val="584196704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1333,23 +1337,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D139F7-F5EB-4346-A977-F60903331208}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1417F9-6C1E-3E46-A545-21507328E5B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1655,20 +1659,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="1" max="16384" width="16.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1678,8 +1680,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1687,10 +1692,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.5</v>
       </c>
@@ -1698,10 +1706,13 @@
         <v>2.75</v>
       </c>
       <c r="C3" s="1">
-        <v>0.40740740740740738</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.6875</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.25</v>
       </c>
@@ -1709,10 +1720,13 @@
         <v>1.3125</v>
       </c>
       <c r="C4" s="1">
-        <v>0.2470588235294118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.328125</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.3125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.125</v>
       </c>
@@ -1720,10 +1734,13 @@
         <v>0.640625</v>
       </c>
       <c r="C5" s="1">
-        <v>0.13804713804713811</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.16015625</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.640625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>6.25E-2</v>
       </c>
@@ -1731,10 +1748,13 @@
         <v>0.31640625</v>
       </c>
       <c r="C6" s="1">
-        <v>7.3303167420814483E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.91015625E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.31640625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3.125E-2</v>
       </c>
@@ -1742,10 +1762,13 @@
         <v>0.1572265625</v>
       </c>
       <c r="C7" s="1">
-        <v>3.7820061075875031E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.9306640625E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4.1572265625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1.5625E-2</v>
       </c>
@@ -1753,10 +1776,13 @@
         <v>7.8369140625E-2</v>
       </c>
       <c r="C8" s="1">
-        <v>1.9215803651601322E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.959228515625E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4.078369140625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7.8125E-3</v>
       </c>
@@ -1764,10 +1790,13 @@
         <v>3.912353515625E-2</v>
       </c>
       <c r="C9" s="1">
-        <v>9.6861447330643582E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9.7808837890625E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4.03912353515625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3.90625E-3</v>
       </c>
@@ -1775,10 +1804,13 @@
         <v>1.95465087890625E-2</v>
       </c>
       <c r="C10" s="1">
-        <v>4.8628641928442629E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.886627197265625E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.0195465087890616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1.953125E-3</v>
       </c>
@@ -1786,10 +1818,13 @@
         <v>9.769439697265625E-3</v>
       </c>
       <c r="C11" s="1">
-        <v>2.4364093357954288E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.4423599243164058E-3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.0097694396972656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9.765625E-4</v>
       </c>
@@ -1797,10 +1832,13 @@
         <v>4.8837661743164062E-3</v>
       </c>
       <c r="C12" s="1">
-        <v>1.2194526631622189E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.220941543579102E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.0048837661743164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>4.8828125E-4</v>
       </c>
@@ -1808,10 +1846,13 @@
         <v>2.441644668579102E-3</v>
       </c>
       <c r="C13" s="1">
-        <v>6.1003879265334826E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.1041116714477539E-4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4.0024416446685791</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2.44140625E-4</v>
       </c>
@@ -1819,10 +1860,13 @@
         <v>1.220762729644775E-3</v>
       </c>
       <c r="C14" s="1">
-        <v>3.0509756947576353E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.0519068241119379E-4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4.0012207627296448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1.220703125E-4</v>
       </c>
@@ -1830,10 +1874,13 @@
         <v>6.1036646366119385E-4</v>
       </c>
       <c r="C15" s="1">
-        <v>1.5256833526648261E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.5259161591529849E-4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4.0006103664636612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>6.103515625E-5</v>
       </c>
@@ -1841,10 +1888,13 @@
         <v>3.0517950654029852E-4</v>
       </c>
       <c r="C16" s="1">
-        <v>7.6289056170945446E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.6294876635074615E-5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4.0003051795065403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>3.0517578125E-5</v>
       </c>
@@ -1852,10 +1902,13 @@
         <v>1.5258882194757459E-4</v>
       </c>
       <c r="C17" s="1">
-        <v>3.8145750333117248E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.8147205486893647E-5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4.0001525888219476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1.52587890625E-5</v>
       </c>
@@ -1863,10 +1916,13 @@
         <v>7.6294178143143654E-5</v>
       </c>
       <c r="C18" s="1">
-        <v>1.9073180742623581E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.907354453578591E-5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4.0000762941781431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>7.62939453125E-6</v>
       </c>
@@ -1874,10 +1930,13 @@
         <v>3.8147030863910907E-5</v>
       </c>
       <c r="C19" s="1">
-        <v>9.536666767097352E-6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9.5367577159777284E-6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4.0000381470308639</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3.814697265625E-6</v>
       </c>
@@ -1885,10 +1944,13 @@
         <v>1.9073486328125E-5</v>
       </c>
       <c r="C20" s="1">
-        <v>4.768348844772125E-6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.76837158203125E-6</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4.0000190734863281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1.9073486328125E-6</v>
       </c>
@@ -1896,10 +1958,13 @@
         <v>9.5367431640625E-6</v>
       </c>
       <c r="C21" s="1">
-        <v>2.384180106687291E-6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.384185791015625E-6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4.0000095367431641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>9.5367431640625E-7</v>
       </c>
@@ -1907,10 +1972,13 @@
         <v>4.76837158203125E-6</v>
       </c>
       <c r="C22" s="1">
-        <v>1.192091474424035E-6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.1920928955078121E-6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4.000004768371582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>4.76837158203125E-7</v>
       </c>
@@ -1918,10 +1986,13 @@
         <v>2.384185791015625E-6</v>
       </c>
       <c r="C23" s="1">
-        <v>5.9604609248275013E-7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.9604644775390625E-7</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4.000002384185791</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2.384185791015625E-7</v>
       </c>
@@ -1929,10 +2000,13 @@
         <v>1.1920928955078121E-6</v>
       </c>
       <c r="C24" s="1">
-        <v>2.9802313505913762E-7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.9802322387695312E-7</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4.0000011920928964</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1.192092895507812E-7</v>
       </c>
@@ -1940,10 +2014,13 @@
         <v>5.9604644775390625E-7</v>
       </c>
       <c r="C25" s="1">
-        <v>1.4901158973401941E-7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.4901161193847659E-7</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4.0000005960464478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>5.9604644775390618E-8</v>
       </c>
@@ -1951,10 +2028,13 @@
         <v>2.9802322387695312E-7</v>
       </c>
       <c r="C26" s="1">
-        <v>7.4505800418123568E-8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.4505805969238281E-8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4.0000002980232239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2.9802322387695309E-8</v>
       </c>
@@ -1962,23 +2042,40 @@
         <v>1.4901161193847659E-7</v>
       </c>
       <c r="C27" s="1">
-        <v>3.7252901596840413E-8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.7252902984619141E-8</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4.0000001490116119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>1.490116119384766E-8</v>
       </c>
-      <c r="B28" s="1">
-        <v>5.9604644775390618E-8</v>
-      </c>
       <c r="C28" s="1">
-        <v>1.490116097180305E-8</v>
+        <v>1.490116119384766E-8</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4.0000000596046448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>7.4505805969238281E-9</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>